--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,297 +429,342 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Introduction to Computer Science Principles I</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Jessie Carbajal-Rivas (Primary)</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 02:00 PM - 03:00 PM</t>
+          <t>Joshua Cormier (Primary)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>10 of 30 seats remain.</t>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 08:49 AM - 09:34 AM</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>16 of 20 seats remain.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles I</t>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Introduction to Computer Science Principles II</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Andrew Lapetina (Primary)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 12:15 PM - 01:10 PM</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10 of 30 seats remain.</t>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 09:46 AM - 10:39 AM</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22 of 35 seats remain.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles I</t>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Andrew Lapetina (Primary)</t>
+          <t>Introduction to Computer Science Principles II</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 01:50 PM - 02:50 PM</t>
+          <t>Liz Roberts-Kirchhoff (Primary)
+Jessie Carbajal-Rivas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4 of 30 seats remain.</t>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 10:45 AM - 11:45 AM</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20 of 35 seats remain.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles I</t>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Terry Laesser (Primary)</t>
+          <t>Introduction to Computer Science Principles II</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 11:45 AM - 12:45 PM</t>
+          <t>Liz Roberts-Kirchhoff (Primary)
+Jessie Carbajal-Rivas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15 of 40 seats remain.</t>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 12:55 PM - 01:55 PM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15 of 35 seats remain.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles I</t>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Introduction to Computer Science Principles II</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Andrew Lapetina (Primary)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 09:05 AM - 10:05 AM</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14 of 30 seats remain.</t>
+          <t>Tuesday-Wednesday-Thursday-Friday , 01:23 PM - 02:11 PM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>16 of 35 seats remain.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles I</t>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Andrew Lapetina (Primary)</t>
+          <t>Introduction to Computer Science Principles II</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 10:10 AM - 11:10 AM</t>
+          <t>Liz Roberts-Kirchhoff (Primary)
+Michael Mitchell
+Andrew Lapetina</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>18 of 30 seats remain.</t>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 01:50 PM - 02:50 PM</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>22 of 35 seats remain.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Introduction to Programming I</t>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tarek Dakhlallah (Primary)</t>
+          <t>Introduction to Computer Science Principles II</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+          <t>Liz Roberts-Kirchhoff (Primary)
+Terry Laesser</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4 of 28 seats remain.</t>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 12:39 PM - 01:34 PM</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>25 of 35 seats remain.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Associated Term:Fall 2022
-CRN:18021
-Campus:On-Line
-Schedule Type: Online 100%
-Instructional Method: Online 100%
-Section Number: CE1
-Subject: Comp Sci/Software Engineering
-Course Number: 1710
-Title: Introduction to Programming I
-Credit Hours: 3
-Grade Mode: No Section specified grade mode, please see Catalog link below for more information.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Introduction to Programming I</t>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Shadi Bedoor (Primary)</t>
+          <t>Introduction to Computer Science Principles II</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>55 of 100 seats remain.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Andrew Lapetina (Primary)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 11:15 AM - 12:15 PM</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>27 of 35 seats remain.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Introduction to Programming I</t>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Shadi Bedoor (Primary)</t>
+          <t>Introduction to Computer Science Principles II</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Thursday-Friday , 05:40 AM - 07:15 AM</t>
+          <t>Joshua Cormier (Primary)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>11 of 100 seats remain.</t>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 08:00 AM - 08:45 AM</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6 of 20 seats remain.</t>
         </is>
       </c>
     </row>
@@ -731,449 +776,632 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Introduction to Programming I</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Shadi Bedoor (Primary)</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33 of 100 seats remain.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>Mina Maleki (Primary)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>16 of 30 seats remain.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1711</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Introduction to Programming I</t>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Shadi Bedoor (Primary)</t>
+          <t>Programming I Laboratory</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>40 of 100 seats remain.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Mina Maleki (Primary)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tuesday , 05:15 PM - 06:30 PM</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FULL: 0 of 12 seats remain.
+8 of 8 waitlist seats remain.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1711</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Associated Term:Fall 2022
-CRN:17762
-Campus:Univ of Detroit Jesuit HS
-Schedule Type: Lab/Lecture
-Instructional Method: Traditional
-Section Number: UD
-Subject: Comp Sci/Software Engineering
-Course Number: 1710
-Title: Introduction to Programming I
-Credit Hours: 3
-Grade Mode: No Section specified grade mode, please see Catalog link below for more information.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Introduction to Programming I</t>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Clarence Wilson (Primary)</t>
+          <t>Programming I Laboratory</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 10:41 AM - 11:26 AM</t>
+          <t>Hebah Alquran (Primary)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10 of 20 seats remain.</t>
-        </is>
-      </c>
+          <t>18 of 20 seats remain.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1711</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>['1710,C']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Programming I Laboratory</t>
+          <t xml:space="preserve">Catalog Prerequisites
+Area Prerequisites
+Prerequisites:Prereq(s) for CSSE1720 are:
+ Course or Test: Comp Sci/Software Engineering 1710 
+ Minimum Grade of C
+ May not be taken concurrently. </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tarek Dakhlallah (Primary)</t>
+          <t>Introduction to Programming II</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Wednesday , 02:00 PM - 03:15 PM</t>
+          <t>Shadi Elaiyan Bani Taan (Primary)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1 of 12 seats remain.</t>
+          <t>Monday-Wednesday , 12:30 PM - 01:45 PM</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4 of 20 seats remain.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1711</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>['1710,C']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Programming I Laboratory</t>
+          <t xml:space="preserve">Catalog Prerequisites
+Area Prerequisites
+Prerequisites:Prereq(s) for CSSE1720 are:
+ Course or Test: Comp Sci/Software Engineering 1710 
+ Minimum Grade of C
+ May not be taken concurrently. </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tarek Dakhlallah (Primary)</t>
+          <t>Introduction to Programming II</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Thursday , 03:30 PM - 04:45 PM</t>
+          <t>Raef Aidibi (Primary)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3 of 12 seats remain.</t>
+          <t>Monday-Wednesday , 12:30 PM - 01:45 PM</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>8 of 24 seats remain.
+10 of 10 waitlist seats remain.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Associated Term:Fall 2022
-CRN:14427
-Campus:McNichols Campus
-Schedule Type: Lecture
-Instructional Method: Traditional
-Section Number: 01
-Subject: Comp Sci/Software Engineering
-Course Number: 2130
-Title: Java
-Credit Hours: 3
-Grade Mode: No Section specified grade mode, please see Catalog link below for more information.</t>
+          <t>['1710,C']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t xml:space="preserve">Catalog Prerequisites
+Area Prerequisites
+Prerequisites:Prereq(s) for CSSE1720 are:
+ Course or Test: Comp Sci/Software Engineering 1710 
+ Minimum Grade of C
+ May not be taken concurrently. </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mina Maleki (Primary)</t>
+          <t>Introduction to Programming II</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
+          <t>Ahmad Aljaafreh (Primary)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6 of 20 seats remain.</t>
+          <t>Monday-Wednesday , 08:00 AM - 10:00 AM</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FULL: 0 of 100 seats remain.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Associated Term:Fall 2022
-CRN:18015
-Campus:On-Line
-Schedule Type: Online 100%
-Instructional Method: Online 100%
-Section Number: SE1
-Subject: Comp Sci/Software Engineering
-Course Number: 2130
-Title: Java
-Credit Hours: 3
-Grade Mode: No Section specified grade mode, please see Catalog link below for more information.</t>
+          <t>['1710,C']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t xml:space="preserve">Catalog Prerequisites
+Area Prerequisites
+Prerequisites:Prereq(s) for CSSE1720 are:
+ Course or Test: Comp Sci/Software Engineering 1710 
+ Minimum Grade of C
+ May not be taken concurrently. </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Omid Aghili (Primary)</t>
+          <t>Introduction to Programming II</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>36 of 100 seats remain.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>Ahmad Aljaafreh (Primary)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 07:00 PM - 09:45 PM</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>31 of 100 seats remain.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Associated Term:Fall 2022
-CRN:15599
-Campus:McNichols Campus
-Schedule Type: Lecture
-Instructional Method: Traditional
-Section Number: 01
-Subject: Comp Sci/Software Engineering
-Course Number: 3430
-Title: Data Structures
-Credit Hours: 3
-Grade Mode: No Section specified grade mode, please see Catalog link below for more information.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Data Structures</t>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mina Maleki (Primary)</t>
+          <t>Programming II Laboratory</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+          <t>Shadi Elaiyan Bani Taan (Primary)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4 of 20 seats remain.</t>
+          <t>Wednesday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1 of 13 seats remain.
+5 of 5 waitlist seats remain.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Associated Term:Fall 2022
-CRN:18016
-Campus:On-Line
-Schedule Type: Online 100%
-Instructional Method: Online 100%
-Section Number: EE1
-Subject: Comp Sci/Software Engineering
-Course Number: 3430
-Title: Data Structures
-Credit Hours: 3
-Grade Mode: No Section specified grade mode, please see Catalog link below for more information.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Data Structures</t>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Omid Aghili (Primary)</t>
+          <t>Programming II Laboratory</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12 of 100 seats remain.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>Shadi Elaiyan Bani Taan (Primary)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Monday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3 of 13 seats remain.
+5 of 5 waitlist seats remain.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>3540</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Associated Term:Fall 2022
-CRN:18017
-Campus:On-Line
-Schedule Type: Online 100%
-Instructional Method: Online 100%
-Section Number: SE1
-Subject: Comp Sci/Software Engineering
-Course Number: 3430
-Title: Data Structures
-Credit Hours: 3
-Grade Mode: No Section specified grade mode, please see Catalog link below for more information.</t>
+          <t>['1720,C', 'or', '1722,C']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Data Structures</t>
+          <t>Catalog Prerequisites
+Area Prerequisites
+Prerequisites:Prereq(s) for CSSE3540 are:
+(
+ Course or Test: Comp Sci/Software Engineering 1720 
+ Minimum Grade of C
+ May not be taken concurrently. 
+)
+or
+(
+ Course or Test: Comp Sci/Software Engineering 1722 
+ Minimum Grade of C
+ May not be taken concurrently. 
+)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Omid Aghili (Primary)</t>
+          <t>Database Systems and Programming</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>36 of 100 seats remain.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>Mina Maleki (Primary)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>7 of 20 seats remain.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4150</t>
+          <t>4440</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Associated Term:Fall 2022
-CRN:13488
-Campus:McNichols Campus
-Schedule Type: Lecture
-Instructional Method: Traditional
-Section Number: 01
-Subject: Comp Sci/Software Engineering
-Course Number: 4150
-Title: Introduction to Software Engineering
-Credit Hours: 3
-Grade Mode: No Section specified grade mode, please see Catalog link below for more information.</t>
+          <t>['1720,C', 'or', '1722,C']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Introduction to Software Engineering</t>
+          <t>Catalog Prerequisites
+Area Prerequisites
+Prerequisites:Prereq(s) for CSSE4440 are:
+(
+ Course or Test: Comp Sci/Software Engineering 1720 
+ Minimum Grade of C
+ May not be taken concurrently. 
+)
+or
+(
+ Course or Test: Comp Sci/Software Engineering 1722 
+ Minimum Grade of C
+ May not be taken concurrently. 
+)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mina Maleki (Primary)</t>
+          <t>Web Technology</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tuesday-Thursday , 03:30 PM - 04:45 PM</t>
+          <t>Omid Aghili (Primary)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>16 of 20 seats remain.</t>
+          <t>Monday-Wednesday , 01:30 PM - 04:45 PM</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>43 of 100 seats remain.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4540</t>
+          <t>4490</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Associated Term:Fall 2022
-CRN:17746
-Campus:On-Line
-Schedule Type: Online 100%
-Instructional Method: Online 100%
-Section Number: OL
-Subject: Comp Sci/Software Engineering
-Course Number: 4540
-Title: Computer Security
-Credit Hours: 3
-Grade Mode: No Section specified grade mode, please see Catalog link below for more information.</t>
+          <t>['3430,C']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Computer Security</t>
+          <t xml:space="preserve">Catalog Prerequisites
+Area Prerequisites
+Prerequisites:Prereq(s) for CSSE4490 are:
+ Course or Test: Comp Sci/Software Engineering 3430 
+ Minimum Grade of C
+ May not be taken concurrently. </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mustafa Saed (Primary)</t>
+          <t>Operating Systems</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>17 of 20 seats remain.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>Abhijit Dasgupta (Primary)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 05:15 PM - 06:30 PM</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>24 of 34 seats remain.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>4540</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Computer Security</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Omid Aghili (Primary)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 01:30 PM - 04:45 PM</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>43 of 100 seats remain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>['3430,C']</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catalog Prerequisites
+Area Prerequisites
+Prerequisites:Prereq(s) for CSSE4550 are:
+ Course or Test: Comp Sci/Software Engineering 3430 
+ Minimum Grade of C
+ May not be taken concurrently. </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Introduction to Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Shadi Elaiyan Bani Taan (Primary)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 11:00 AM - 12:15 PM</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>14 of 20 seats remain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>['3430,C']</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catalog Prerequisites
+Area Prerequisites
+Prerequisites:Prereq(s) for CSSE4550 are:
+ Course or Test: Comp Sci/Software Engineering 3430 
+ Minimum Grade of C
+ May not be taken concurrently. </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Introduction to Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Omid Aghili (Primary)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 06:00 PM - 08:55 PM</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>42 of 100 seats remain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>4570</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>['4150,C']</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">Catalog Prerequisites
 Area Prerequisites
@@ -1183,256 +1411,284 @@
  May not be taken concurrently. </t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Software Project Management</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Kevin Daimi (Primary)</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>12 of 20 seats remain.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>4610</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Associated Term:Fall 2022
-CRN:17105
-Campus:McNichols Campus
-Schedule Type: Lecture
-Instructional Method: Traditional
-Section Number: 01
-Subject: Comp Sci/Software Engineering
-Course Number: 4610
-Title: Introduction to Data Mining
-Credit Hours: 3
-Grade Mode: No Section specified grade mode, please see Catalog link below for more information.</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Introduction to Data Mining</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Shadi Elaiyan Bani Taan (Primary)</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Monday-Wednesday , 10:00 AM - 11:15 AM</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>9 of 12 seats remain.
-5 of 5 waitlist seats remain.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>4951</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Senior Design Project I</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Shadi Elaiyan Bani Taan (Primary)</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Monday , 01:00 PM - 03:30 PM</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>12 of 20 seats remain.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>5120</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Introduction to Data Science</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Matt Haley (Primary)</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>18 of 20 seats remain.</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>14 of 25 seats remain.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>4900</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Software Engineering</t>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mina Maleki (Primary)</t>
+          <t>Game Design, Develop, &amp; Tools</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tuesday-Thursday , 03:30 PM - 04:45 PM</t>
+          <t>Steven Rice (Primary)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>18 of 20 seats remain.</t>
+          <t>Monday-Wednesday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>FULL: 0 of 20 seats remain.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5310</t>
+          <t>4952</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>['4951,C']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Data Mining</t>
+          <t xml:space="preserve">Catalog Prerequisites
+Area Prerequisites
+Prerequisites:Prereq(s) for CSSE4952 are:
+ Course or Test: Comp Sci/Software Engineering 4951 
+ Minimum Grade of C
+ May not be taken concurrently. </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>Senior Design Project II</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Shadi Elaiyan Bani Taan (Primary)</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Monday-Wednesday , 10:00 AM - 11:15 AM</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>7 of 8 seats remain.
-5 of 5 waitlist seats remain.</t>
+          <t>Monday-Wednesday , 09:00 AM - 10:15 AM</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>13 of 20 seats remain.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5520</t>
+          <t>5480</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Architectures for Software Systems</t>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rita Barrios (Primary)</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>25 of 30 seats remain.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>Shadi Elaiyan Bani Taan (Primary)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 11:00 AM - 12:15 PM</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>8 of 20 seats remain.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5760</t>
+          <t>5520</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Network Security</t>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sakhr Youness (Primary)</t>
+          <t>Architectures for Software Systems</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12 of 20 seats remain.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>Rita Barrios (Primary)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>18 of 25 seats remain.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>5550</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Software Requirements Engineering</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Mina Maleki (Primary)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 03:30 PM - 04:45 PM</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>14 of 20 seats remain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>5570</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Software Systems Project Management</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Kevin Daimi (Primary)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>22 of 25 seats remain.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>5930</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Catalog Prerequisites
+No prerequisite information available.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Graduate Design Project</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Shadi Elaiyan Bani Taan (Primary)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1 of 5 seats remain.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,33 +429,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Introduction to Computer Science Principles I</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles I</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Joshua Cormier (Primary)</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
           <t>Monday-Tuesday-Wednesday-Thursday-Friday , 08:49 AM - 09:34 AM</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>16 of 20 seats remain.</t>
         </is>
       </c>
     </row>
@@ -467,33 +451,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Introduction to Computer Science Principles II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles II</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Andrew Lapetina (Primary)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>Monday-Tuesday-Wednesday-Thursday-Friday , 09:46 AM - 10:39 AM</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>22 of 35 seats remain.</t>
         </is>
       </c>
     </row>
@@ -505,34 +473,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Introduction to Computer Science Principles II</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles II</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Liz Roberts-Kirchhoff (Primary)
-Jessie Carbajal-Rivas</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>Monday-Tuesday-Wednesday-Thursday-Friday , 10:45 AM - 11:45 AM</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>20 of 35 seats remain.</t>
         </is>
       </c>
     </row>
@@ -544,34 +495,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Introduction to Computer Science Principles II</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles II</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Liz Roberts-Kirchhoff (Primary)
-Jessie Carbajal-Rivas</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>Monday-Tuesday-Wednesday-Thursday-Friday , 12:55 PM - 01:55 PM</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>15 of 35 seats remain.</t>
         </is>
       </c>
     </row>
@@ -583,33 +517,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Introduction to Computer Science Principles II</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles II</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Andrew Lapetina (Primary)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>Tuesday-Wednesday-Thursday-Friday , 01:23 PM - 02:11 PM</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>16 of 35 seats remain.</t>
         </is>
       </c>
     </row>
@@ -621,35 +539,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Introduction to Computer Science Principles II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles II</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Liz Roberts-Kirchhoff (Primary)
-Michael Mitchell
-Andrew Lapetina</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>Monday-Tuesday-Wednesday-Thursday-Friday , 01:50 PM - 02:50 PM</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>22 of 35 seats remain.</t>
         </is>
       </c>
     </row>
@@ -661,34 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Introduction to Computer Science Principles II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles II</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Liz Roberts-Kirchhoff (Primary)
-Terry Laesser</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>Monday-Tuesday-Wednesday-Thursday-Friday , 12:39 PM - 01:34 PM</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>25 of 35 seats remain.</t>
         </is>
       </c>
     </row>
@@ -700,33 +583,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Introduction to Computer Science Principles II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles II</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Andrew Lapetina (Primary)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>Monday-Tuesday-Wednesday-Thursday-Friday , 11:15 AM - 12:15 PM</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>27 of 35 seats remain.</t>
         </is>
       </c>
     </row>
@@ -738,33 +605,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Introduction to Computer Science Principles II</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles II</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Joshua Cormier (Primary)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>Monday-Tuesday-Wednesday-Thursday-Friday , 08:00 AM - 08:45 AM</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>6 of 20 seats remain.</t>
         </is>
       </c>
     </row>
@@ -776,33 +627,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Introduction to Programming I</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Introduction to Programming I</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Mina Maleki (Primary)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>16 of 30 seats remain.</t>
         </is>
       </c>
     </row>
@@ -814,34 +649,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Programming I Laboratory</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Programming I Laboratory</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Mina Maleki (Primary)</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>Tuesday , 05:15 PM - 06:30 PM</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>FULL: 0 of 12 seats remain.
-8 of 8 waitlist seats remain.</t>
         </is>
       </c>
     </row>
@@ -853,31 +671,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Programming I Laboratory</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Programming I Laboratory</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Hebah Alquran (Primary)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>18 of 20 seats remain.</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>Wednesday-Thursday , 09:00 AM - 10:15 AM</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -887,37 +693,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Introduction to Programming II</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>['1710,C']</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catalog Prerequisites
-Area Prerequisites
-Prerequisites:Prereq(s) for CSSE1720 are:
- Course or Test: Comp Sci/Software Engineering 1710 
- Minimum Grade of C
- May not be taken concurrently. </t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Introduction to Programming II</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Shadi Elaiyan Bani Taan (Primary)</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>Monday-Wednesday , 12:30 PM - 01:45 PM</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>4 of 20 seats remain.</t>
         </is>
       </c>
     </row>
@@ -929,38 +715,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Introduction to Programming II</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>['1710,C']</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catalog Prerequisites
-Area Prerequisites
-Prerequisites:Prereq(s) for CSSE1720 are:
- Course or Test: Comp Sci/Software Engineering 1710 
- Minimum Grade of C
- May not be taken concurrently. </t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Introduction to Programming II</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Raef Aidibi (Primary)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>Monday-Wednesday , 12:30 PM - 01:45 PM</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>8 of 24 seats remain.
-10 of 10 waitlist seats remain.</t>
         </is>
       </c>
     </row>
@@ -972,37 +737,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Introduction to Programming II</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>['1710,C']</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catalog Prerequisites
-Area Prerequisites
-Prerequisites:Prereq(s) for CSSE1720 are:
- Course or Test: Comp Sci/Software Engineering 1710 
- Minimum Grade of C
- May not be taken concurrently. </t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Introduction to Programming II</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Ahmad Aljaafreh (Primary)</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>Monday-Wednesday , 08:00 AM - 10:00 AM</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>FULL: 0 of 100 seats remain.</t>
         </is>
       </c>
     </row>
@@ -1014,37 +759,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Introduction to Programming II</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>['1710,C']</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catalog Prerequisites
-Area Prerequisites
-Prerequisites:Prereq(s) for CSSE1720 are:
- Course or Test: Comp Sci/Software Engineering 1710 
- Minimum Grade of C
- May not be taken concurrently. </t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Introduction to Programming II</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Ahmad Aljaafreh (Primary)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>Tuesday-Thursday , 07:00 PM - 09:45 PM</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>31 of 100 seats remain.</t>
         </is>
       </c>
     </row>
@@ -1056,34 +781,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Programming II Laboratory</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Programming II Laboratory</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Shadi Elaiyan Bani Taan (Primary)</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>Wednesday , 02:00 PM - 03:15 PM</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1 of 13 seats remain.
-5 of 5 waitlist seats remain.</t>
         </is>
       </c>
     </row>
@@ -1095,34 +803,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Programming II Laboratory</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Programming II Laboratory</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Shadi Elaiyan Bani Taan (Primary)</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>Monday , 02:00 PM - 03:15 PM</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>3 of 13 seats remain.
-5 of 5 waitlist seats remain.</t>
         </is>
       </c>
     </row>
@@ -1134,45 +825,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Database Systems and Programming</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>['1720,C', 'or', '1722,C']</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Catalog Prerequisites
-Area Prerequisites
-Prerequisites:Prereq(s) for CSSE3540 are:
-(
- Course or Test: Comp Sci/Software Engineering 1720 
- Minimum Grade of C
- May not be taken concurrently. 
-)
-or
-(
- Course or Test: Comp Sci/Software Engineering 1722 
- Minimum Grade of C
- May not be taken concurrently. 
-)</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Database Systems and Programming</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Mina Maleki (Primary)</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>7 of 20 seats remain.</t>
         </is>
       </c>
     </row>
@@ -1184,45 +847,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Web Technology</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>['1720,C', 'or', '1722,C']</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Catalog Prerequisites
-Area Prerequisites
-Prerequisites:Prereq(s) for CSSE4440 are:
-(
- Course or Test: Comp Sci/Software Engineering 1720 
- Minimum Grade of C
- May not be taken concurrently. 
-)
-or
-(
- Course or Test: Comp Sci/Software Engineering 1722 
- Minimum Grade of C
- May not be taken concurrently. 
-)</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Web Technology</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Omid Aghili (Primary)</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>Monday-Wednesday , 01:30 PM - 04:45 PM</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>43 of 100 seats remain.</t>
         </is>
       </c>
     </row>
@@ -1234,37 +869,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Operating Systems</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>['3430,C']</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catalog Prerequisites
-Area Prerequisites
-Prerequisites:Prereq(s) for CSSE4490 are:
- Course or Test: Comp Sci/Software Engineering 3430 
- Minimum Grade of C
- May not be taken concurrently. </t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Operating Systems</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Abhijit Dasgupta (Primary)</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>Monday-Wednesday , 05:15 PM - 06:30 PM</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>24 of 34 seats remain.</t>
         </is>
       </c>
     </row>
@@ -1276,33 +891,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Computer Security</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Computer Security</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Omid Aghili (Primary)</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>Tuesday-Thursday , 01:30 PM - 04:45 PM</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>43 of 100 seats remain.</t>
         </is>
       </c>
     </row>
@@ -1314,37 +913,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Introduction to Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>['3430,C']</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catalog Prerequisites
-Area Prerequisites
-Prerequisites:Prereq(s) for CSSE4550 are:
- Course or Test: Comp Sci/Software Engineering 3430 
- Minimum Grade of C
- May not be taken concurrently. </t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Introduction to Artificial Intelligence</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Shadi Elaiyan Bani Taan (Primary)</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>Monday-Wednesday , 11:00 AM - 12:15 PM</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>14 of 20 seats remain.</t>
         </is>
       </c>
     </row>
@@ -1356,37 +935,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Introduction to Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>['3430,C']</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catalog Prerequisites
-Area Prerequisites
-Prerequisites:Prereq(s) for CSSE4550 are:
- Course or Test: Comp Sci/Software Engineering 3430 
- Minimum Grade of C
- May not be taken concurrently. </t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Introduction to Artificial Intelligence</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Omid Aghili (Primary)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>Tuesday-Thursday , 06:00 PM - 08:55 PM</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>42 of 100 seats remain.</t>
         </is>
       </c>
     </row>
@@ -1398,35 +957,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Software Project Management</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>['4150,C']</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catalog Prerequisites
-Area Prerequisites
-Prerequisites:Prereq(s) for CSSE4570 are
- Course or Test: Comp Sci/Software Engineering 4150 
- Minimum Grade of C
- May not be taken concurrently. </t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Software Project Management</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Kevin Daimi (Primary)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>14 of 25 seats remain.</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>Tuesday-Thursday , 05:15 PM - 06:30 PM</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1436,33 +979,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Game Design, Develop, &amp; Tools</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Game Design, Develop, &amp; Tools</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Steven Rice (Primary)</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>Monday-Wednesday , 02:00 PM - 03:15 PM</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>FULL: 0 of 20 seats remain.</t>
         </is>
       </c>
     </row>
@@ -1474,37 +1001,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Senior Design Project II</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>['4951,C']</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catalog Prerequisites
-Area Prerequisites
-Prerequisites:Prereq(s) for CSSE4952 are:
- Course or Test: Comp Sci/Software Engineering 4951 
- Minimum Grade of C
- May not be taken concurrently. </t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Senior Design Project II</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Shadi Elaiyan Bani Taan (Primary)</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>Monday-Wednesday , 09:00 AM - 10:15 AM</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>13 of 20 seats remain.</t>
         </is>
       </c>
     </row>
@@ -1516,33 +1023,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Shadi Elaiyan Bani Taan (Primary)</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>Monday-Wednesday , 11:00 AM - 12:15 PM</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>8 of 20 seats remain.</t>
         </is>
       </c>
     </row>
@@ -1554,31 +1045,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Architectures for Software Systems</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Architectures for Software Systems</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Rita Barrios (Primary)</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>18 of 25 seats remain.</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>Monday , 06:40 PM - 09:10 PM</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1588,33 +1067,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Software Requirements Engineering</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Software Requirements Engineering</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Mina Maleki (Primary)</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>Tuesday-Thursday , 03:30 PM - 04:45 PM</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>14 of 20 seats remain.</t>
         </is>
       </c>
     </row>
@@ -1626,31 +1089,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Software Systems Project Management</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Software Systems Project Management</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Kevin Daimi (Primary)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>22 of 25 seats remain.</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>Tuesday-Thursday , 05:15 PM - 06:30 PM</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1660,33 +1111,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Graduate Design Project</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Catalog Prerequisites
-No prerequisite information available.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Graduate Design Project</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Shadi Elaiyan Bani Taan (Primary)</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t xml:space="preserve"> , -</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>1 of 5 seats remain.</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>ACC 2010</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles I</t>
+          <t>Principles of Accounting I</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -439,85 +439,85 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 08:49 AM - 09:34 AM</t>
+          <t>Tuesday , 05:00 PM - 07:30 PM</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>ACC 2020</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles II</t>
+          <t>Principles of Accounting II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>['Accounting 2010,D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 09:46 AM - 10:39 AM</t>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>ACC 2020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles II</t>
+          <t>Principles of Accounting II</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>['Accounting 2010,D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 10:45 AM - 11:45 AM</t>
+          <t>Thursday , 05:00 PM - 07:30 PM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>ACC 3120</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles II</t>
+          <t>Intermediate Accounting II</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>['Accounting 3110,D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 12:55 PM - 01:55 PM</t>
+          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>ACC 4300</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles II</t>
+          <t>Federal Income Taxation I</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,19 +527,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tuesday-Wednesday-Thursday-Friday , 01:23 PM - 02:11 PM</t>
+          <t>Saturday , 08:30 AM - 03:00 PM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>ACC 4300</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles II</t>
+          <t>Federal Income Taxation I</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -549,90 +549,90 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 01:50 PM - 02:50 PM</t>
+          <t>Saturday , 08:30 AM - 03:00 PM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>ACC 4500</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles II</t>
+          <t>Accounting Information Systems</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>['Accounting 2020,D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 12:39 PM - 01:34 PM</t>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>ACC 4510</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles II</t>
+          <t>Auditing</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>['Accounting 3120,D', 'and', 'Mathematics 2140,D', 'or', 'Statistics 2250,D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 11:15 AM - 12:15 PM</t>
+          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>ACC 5200</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Introduction to Computer Science Principles II</t>
+          <t>Managerial Accounting</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>['Accounting 5100,C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 08:00 AM - 08:45 AM</t>
+          <t>Tuesday , 06:40 PM - 09:10 PM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>ACC 5500</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Introduction to Programming I</t>
+          <t>Accounting Information Systems</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>['Accounting 5100,C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -644,144 +644,144 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1711</t>
+          <t>ACC 5510</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Programming I Laboratory</t>
+          <t>Auditing</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>['Accounting 5100,C']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tuesday , 05:15 PM - 06:30 PM</t>
+          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1711</t>
+          <t>ACC 5950</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Programming I Laboratory</t>
+          <t>Federal Income Tax I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>['Accounting 5200,C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wednesday-Thursday , 09:00 AM - 10:15 AM</t>
+          <t>Saturday , 08:30 AM - 03:00 PM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>ADS 1000</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Introduction to Programming II</t>
+          <t>Introduction to Addiction Studies</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['1710,C']</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Monday-Wednesday , 12:30 PM - 01:45 PM</t>
+          <t>Wednesday , 04:00 PM - 06:30 PM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>ADS 4170</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Introduction to Programming II</t>
+          <t>Substance Use Disorders in Youth</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['1710,C']</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Monday-Wednesday , 12:30 PM - 01:45 PM</t>
+          <t>Tuesday , 04:00 PM - 06:30 PM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>ADS 5170</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Introduction to Programming II</t>
+          <t>Substance Use Disorders in Youth</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['1710,C']</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Monday-Wednesday , 08:00 AM - 10:00 AM</t>
+          <t>Tuesday , 04:00 PM - 06:30 PM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>AEV 5010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Introduction to Programming II</t>
+          <t>Introduction to Advanced Electric Vehicles</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['1710,C']</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tuesday-Thursday , 07:00 PM - 09:45 PM</t>
+          <t>Wednesday , 05:15 PM - 07:45 PM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>AEV 5050</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Programming II Laboratory</t>
+          <t>Electric Drives/Electromechanical Energy Conversion</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -791,19 +791,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wednesday , 02:00 PM - 03:15 PM</t>
+          <t>Thursday , 06:40 PM - 09:10 PM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>AEV 5070</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Programming II Laboratory</t>
+          <t>Systems Engineering for Advanced Electric Vehicles</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -813,85 +813,85 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Monday , 02:00 PM - 03:15 PM</t>
+          <t>Thursday , 04:00 PM - 06:30 PM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3540</t>
+          <t>AEV 5070</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Database Systems and Programming</t>
+          <t>Systems Engineering for Advanced Electric Vehicles</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['1720,C', 'or', '1722,C']</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
+          <t>Thursday , 04:00 PM - 06:30 PM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4440</t>
+          <t>AAS 2000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Web Technology</t>
+          <t>Critical Perspectives in African-American Studies</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['1720,C', 'or', '1722,C']</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Monday-Wednesday , 01:30 PM - 04:45 PM</t>
+          <t>Monday , 04:00 PM - 06:30 PM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4490</t>
+          <t>ALCP 2013</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Operating Systems</t>
+          <t>Intermediate Writing</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['3430,C']</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Monday-Wednesday , 05:15 PM - 06:30 PM</t>
+          <t>Monday-Wednesday-Friday , 11:00 AM - 11:50 AM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4540</t>
+          <t>ALCP 3150</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Computer Security</t>
+          <t>Academic Writing and Culture Seminar</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -901,85 +901,85 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tuesday-Thursday , 01:30 PM - 04:45 PM</t>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4550</t>
+          <t>ALCP 5011</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Introduction to Artificial Intelligence</t>
+          <t>Intermediate Reading</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['3430,C']</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Monday-Wednesday , 11:00 AM - 12:15 PM</t>
+          <t>Monday-Wednesday-Friday , 12:00 PM - 12:50 PM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4550</t>
+          <t>ALCP 5012</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Introduction to Artificial Intelligence</t>
+          <t>Intermediate Listening and Speaking</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['3430,C']</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tuesday-Thursday , 06:00 PM - 08:55 PM</t>
+          <t>Monday-Wednesday-Friday , 09:00 AM - 09:50 AM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4570</t>
+          <t>ALCP 5013</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Software Project Management</t>
+          <t>Intermediate Writing</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['4150,C']</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tuesday-Thursday , 05:15 PM - 06:30 PM</t>
+          <t>Monday-Wednesday-Friday , 11:00 AM - 11:50 AM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4900</t>
+          <t>ALCP 5101</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Game Design, Develop, &amp; Tools</t>
+          <t>Intensive English</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -989,41 +989,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Monday-Wednesday , 02:00 PM - 03:15 PM</t>
+          <t>Tuesday-Thursday , 10:00 AM - 11:15 AM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4952</t>
+          <t>ALCP 5315</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Senior Design Project II</t>
+          <t>Academic Writing and Culture Seminar</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['4951,C']</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Monday-Wednesday , 09:00 AM - 10:15 AM</t>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5480</t>
+          <t>ANE 7020</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Clinical Internship II</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1033,19 +1033,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Monday-Wednesday , 11:00 AM - 12:15 PM</t>
+          <t>Thursday-Friday , -</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5520</t>
+          <t>ANE 7050</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Architectures for Software Systems</t>
+          <t>Clinical Internship V</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1055,19 +1055,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Monday , 06:40 PM - 09:10 PM</t>
+          <t>Monday-Tuesday-Thursday-Friday , -</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5550</t>
+          <t>ANE 7110</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Software Requirements Engineering</t>
+          <t>Pathophysiology Review</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1077,19 +1077,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tuesday-Thursday , 03:30 PM - 04:45 PM</t>
+          <t>Wednesday , 12:00 PM - 01:55 PM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5570</t>
+          <t>ANE 7210</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Software Systems Project Management</t>
+          <t>Epidemiology and Population Health in Nurse Anesthesia Practice Seminar</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1099,29 +1099,8499 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tuesday-Thursday , 05:15 PM - 06:30 PM</t>
+          <t xml:space="preserve"> , -</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5930</t>
+          <t>ANE 7500</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Anesthesia for Specific Procedures and Special Populations I</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wednesday , 09:00 AM - 12:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ANE 7610</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Pharmacology of Nurse Anesthesia II</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Monday , 09:00 AM - 12:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ANE 7701</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Principles of Regional Anesthesia</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>['Anesthesiology 7490,B-']</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Monday , 01:30 PM - 04:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ANE 7920</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DNP Practicum and Project Implementation II</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Wednesday , 02:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ARB 1100</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Introduction to Arabic I</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 05:30 PM - 07:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ARB 1110</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Introduction to Arabic II</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>['Arabic 1100,C']</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Wednesday , 05:30 PM - 08:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ARB 1110</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ARB 1110-01 Winter 2017</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>['Arabic 1100,C']</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Wednesday , 05:30 PM - 08:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ARB 2100</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Intermediate Arabic I</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>['Arabic 1120,C']</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Wednesday , 05:30 PM - 08:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AENG 4100</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Architectural Engineering Integrative Design</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['Civil Engineering 4680,D', 'or', 'Engineering 4820,D', 'or', 'Architectural Engineering 4300,D', 'or', 'Architectural Engineering 4350,D', 'or', 'Civil Engineering 3450,D']</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 08:30 AM - 09:45 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AENG 4112</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Fundamentals of Engineering for Architectural Engineers</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ARCH 1200</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Architectural Design II</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>['Architecture 1100,D']</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 02:00 PM - 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ARCH 1200</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Architectural Design II</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>['Architecture 1100,D']</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 02:00 PM - 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ARCH 1200</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Architectural Design II</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>['Architecture 1100,D']</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 02:00 PM - 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ARCH 1200</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Architectural Design II</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>['Architecture 1100,D']</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 02:00 PM - 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ARCH 1211</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Visual Communication II</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 03:30 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ARCH 1211</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Visual Communication II</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 03:30 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ARCH 1211</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Visual Communication II</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 03:30 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ARCH 1211</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Visual Communication II</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 03:30 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ARCH 1290</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Introduction to Architecture II</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ARCH 1400</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Architectural Design IV</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>['Architecture 1300,D']</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 02:00 PM - 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ARCH 1400</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Architectural Design IV</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>['Architecture 1300,D']</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 02:00 PM - 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ARCH 1400</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Architectural Design IV</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>['Architecture 1300,D']</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 02:00 PM - 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ARCH 1840</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Structural Principles</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ARCH 1860</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Environmental Principles</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ARCH 1880</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Construction Principles</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ARCH 2200</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Architectural Design VI</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 01:00 PM - 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ARCH 2211</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Visual Communications IV</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>['Architecture 2110,D']</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 03:30 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ARCH 2211</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Visual Communications IV</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>['Architecture 2110,D']</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 03:30 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ARCH 2211</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Visual Communications IV</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>['Architecture 2110,D']</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 03:30 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ARCH 2220</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Architectural History and Theory II</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 11:00 AM - 12:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ARCH 2220</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Architectural History and Theory II</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 11:00 AM - 12:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ARCH 2840</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Building Structures II</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ARCH 2860</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Building Environment II</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ARCH 2880</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Building Construction II</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ARCH 3010</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Professional Experience</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>['Architecture 3000,P', 'or', 'Career Education Center 3000,P']</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ARCH 3010</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Professional Experience</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>['Architecture 3000,P', 'or', 'Career Education Center 3000,P']</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ARCH 3100</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Public Interest Design Studio</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>['Architecture 1400,D']</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 02:00 PM - 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ARCH 3190</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Building Code / Zoning Analysis</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ARCH 3300</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Study Abroad Studio</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>['Architecture 1400,D']</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ARCH 3320</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>History of Urban Form</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ARCH 3820</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>History of Polish Architecture and Vernacular</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ARCH 4840</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Building Structures III</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>['Architecture 2840,D']</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Thursday , 06:40 PM - 09:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ARCH 4880</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Urban and Regional Planning</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ARCH 4919</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Masters Thesis Preparation</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Monday , 11:00 AM - 11:55 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ARCH 4919</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Masters Thesis Preparation</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ARCH 4990</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Urban Analysis</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Thursday , 09:30 AM - 12:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ARCH 5020</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Professional Experience</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ARCH 5190</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Profession of Architecture</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Monday , 09:30 AM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ARCH 5200</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Thesis Studio II</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>['Architecture 5100,C']</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Monday , 01:00 PM - 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ARCH 5200</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Thesis Studio II</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>['Architecture 5100,C']</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Monday , 01:00 PM - 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ARCH 5200</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Thesis Studio II</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>['Architecture 5100,C']</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Monday , 01:00 PM - 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ARCH 5200</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Thesis Studio II</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>['Architecture 5100,C']</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Monday , 01:00 PM - 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ARCH 5200</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Thesis Studio II</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>['Architecture 5100,C']</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Monday , 01:00 PM - 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ARCH 5210</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Thesis Research Methods II</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Friday , 02:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ARCH 5210</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Thesis Research Methods II</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Friday , 02:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ARCH 5290</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Architect/Community Developer as Real Estate Developer</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Tuesday , 06:40 PM - 08:40 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ARCH 5922</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Landscape Architect Des Fund</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Tuesday , 03:00 PM - 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ARCH 5950</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Adv Materials and Fabrications</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Thursday , 06:40 PM - 09:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ARCH 5970</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Graphic Design II</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Monday , 06:40 PM - 09:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ARCH 5980</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Urban Typology</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Friday , 09:30 AM - 12:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ARCH 5980</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Dichotomy Production</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ARCH 5990</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>New Cartographies</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Wednesday , 06:40 PM - 09:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>BIO 1040</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Fundamentals of Bioinfomatics</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>BIO 1200</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>General Biology I</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>BIO 1220</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>General Biology II</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 09:00 AM - 09:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>BIO 1220</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>General Biology II</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>BIO 1220</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>General Biology II</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 10:00 AM - 10:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>BIO 1220</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>General Biology II</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>BIO 1230</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>General Biology Laboratory II</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>['Biology 1220,C']</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Monday , 02:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>BIO 1230</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>General Biology Laboratory II</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>['Biology 1220,C']</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Tuesday , 02:00 PM - 04:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>BIO 1230</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>General Biology Laboratory II</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>['Biology 1220,C']</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Wednesday , 02:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>BIO 1230</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>General Biology Laboratory II</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>['Biology 1220,C']</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Thursday , 02:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>BIO 1230</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>General Biology Laboratory II</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>['Biology 1220,C']</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Friday , 02:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>BIO 1230</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>General Biology Laboratory II</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>['Biology 1220,C']</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Thursday , 05:30 PM - 08:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>BIO 2040</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Applied Nutrition</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>['Biology 1200,C', 'and', 'Biology 2300,C', 'or']</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>BIO 2300</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Principles of Human Anatomy and Physiology Lecture I</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>['Biology 2310,C']</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 11:00 AM - 11:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>BIO 2310</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Principles of Human Anatomy and Physiology Laboratory I</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Friday , 02:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>BIO 2320</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Principles of Human Anatomy and Physiology Lecture II</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>['Biology 2300,C']</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>BIO 2320</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Principles of Human Anatomy and Physiology Lecture II</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>['Biology 2300,C']</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 12:00 PM - 12:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>BIO 2320</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Principles of Human Anatomy and Physiology Lecture II</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>['Biology 2300,C']</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Monday-Tuesday-Wednesday , 10:20 AM - 11:15 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>BIO 2330</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Principles of Human Anatomy and Physiology Lab II</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>['Biology 2300,C']</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Tuesday , 02:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>BIO 2330</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Principles of Human Anatomy and Physiology Lab II</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>['Biology 2300,C']</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Wednesday , 02:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>BIO 2330</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Principles of Human Anatomy and Physiology Lab II</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>['Biology 2300,C']</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Thursday-Friday , 10:20 AM - 11:15 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>BIO 2600</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Comparative Vertebrate Anatomy</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>['Biology 1200,C']</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 10:00 AM - 10:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>BIO 2610</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Comparative Vertebrate Anatomy Laboratory</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>['Biology 2600,C']</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Tuesday , 02:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>BIO 2610</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Comparative Vertebrate Anatomy Laboratory</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>['Biology 2600,C']</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Thursday , 02:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>BIO 2700</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Genetics</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>['Biology 1200,C']</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>BIO 2710</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Genetics Laboratory</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>['Biology 2700,C']</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Wednesday , 02:00 PM - 04:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>BIO 2900</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Biostatistics</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>['Biology 1200,C']</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>BIO 2900</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Biostatistics</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>['Biology 1200,C']</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>BIO 3700</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Developmental Biology</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>['Biology 2600,C', 'or', 'Biology 4801,C', 'and', 'Biology 2700,C']</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 12:00 PM - 12:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>BIO 3710</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Developmental Biology Laboratory</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>['Biology 3700,C']</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Wednesday , 02:00 PM - 04:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>BIO 3950</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Advanced Microbial Phage Genomics: SEA-GENES</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>['Biology 2700,C']</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 02:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>BIO 4200</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Evolution</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>['Biology 1200,C']</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>BIO 4210</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Microbiology</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>['Biology 2700,C']</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 11:00 AM - 11:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>BIO 4210</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Microbiology</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>['Biology 2700,C']</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 11:00 AM - 11:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>BIO 4220</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Microbiology Laboratory</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>['Biology 4210,C']</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Wednesday , 02:00 PM - 04:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>BIO 4220</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Microbiology Laboratory</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>['Biology 4210,C']</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Thursday , 02:00 PM - 04:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>BIO 4220</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Microbiology Laboratory</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>['Biology 4210,C']</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Tuesday , 02:00 PM - 04:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>BIO 4350</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Fundamentals of Pharmacology</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>['Biology 4630,B-']</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>BIO 4630</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Physiology</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>['Biology 2600,C', 'or', 'Dental General 1000,P', 'or', 'Physician Assistant 1010,C', 'or', 'Biology 4801,C']</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 10:00 AM - 10:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>BIO 4630</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Physiology</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>['Biology 2600,C', 'or', 'Dental General 1000,P', 'or', 'Physician Assistant 1010,C', 'or', 'Biology 4801,C']</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 09:00 AM - 09:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>BIO 4640</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Physiology Laboratory</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>['Biology 4630,D']</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Wednesday , 02:00 PM - 04:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>BIO 4801</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Advanced Human Anatomy for Pre-Professional Students</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>['Biology 1200,C']</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Wednesday , 10:00 AM - 10:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>BIO 4802</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Advanced Human Anatomy Lab for Pre-Professionals</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>['Biology 1200,C']</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Monday , 02:00 PM - 04:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>BIO 4900</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Directed Studies: Library Research</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>['Biology 1200,C']</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>BIO 4900</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Directed Studies: Library Research</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>['Biology 1200,C']</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>BIO 4900</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Directed Studies: Library Research</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>['Biology 1200,C']</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>BIO 4920</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Directed Studies: Laboratory Research</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>[',']</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>BIO 4920</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Directed Studies: Laboratory Research</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>[',']</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>BIO 4920</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Directed Studies: Laboratory Research</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>[',']</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>BIO 4920</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Directed Studies: Laboratory Research</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>BIO 4920</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Directed Studies: Laboratory Research</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>[',']</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>BIO 4920</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Directed Studies: Laboratory Research</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>[',']</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>BIO 4920</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Directed Studies: Laboratory Research</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>BIO 4920</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Directed Studies: Laboratory Research</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>[',']</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>BIO 4990</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Biology and Social Issues</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>['Biology 1200,C']</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Friday , 02:00 PM - 03:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>BIO 4990</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Biology and Social Issues</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>['Biology 1200,C']</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Friday , 02:00 PM - 03:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>BIO 4990</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Biology and Social Issues</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>['Biology 1200,C']</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Thursday , 02:00 PM - 03:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>BIO 5390</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Graduate Physiology II</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Tuesday , 09:00 AM - 12:25 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>BUS 1500</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Introduction to Business</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Thursday , 05:00 PM - 07:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>BUS 2310</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Business Law</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 10:00 AM - 10:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>BUS 2950</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Principles of Managerial Economics</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>['Mathematics 1010,C', 'or', 'Mathematics 1040,C', 'or', 'Mathematics 1110,C', 'or', 'Mathematics 1120,C', 'or', 'Mathematics 1400,C', 'or', 'Mathematics 1410,C', 'or', 'Mathematics 1420,C']</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Wednesday , 05:00 PM - 07:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>BUS 3110</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Organizational Design and Structure</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 09:00 AM - 09:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>BUS 3120</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Principles of Marketing</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>BUS 3130</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Financial Management</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>['Accounting 2010,D', 'and']</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>BUS 3130</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Financial Management</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>['Accounting 2010,D', 'and']</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Thursday , 06:40 PM - 09:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>BUS 3150</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Quantitative Methods for Decision-Making</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>['Required Credits: 45.0,May be taken concurrently.']</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>BUS 3160</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Control of Operations Management and Quality</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>['Statistics 2250,D', 'or', 'Mathematics 2140,D']</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>BUS 3160</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Control of Operations Management and Quality</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>['Statistics 2250,D', 'or', 'Mathematics 2140,D']</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Thursday , 06:40 PM - 09:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>BUS 3170</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Management of Information Systems</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>BUS 3180</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Leadership and Teams with Diverse Peoples</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 12:00 PM - 12:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>BUS 3180</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Leadership and Teams with Diverse Peoples</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Wednesday , 05:00 PM - 07:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>BUS 3190</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Ethics, Business Leadership, and Social Responsibility</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 01:00 PM - 02:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>BUS 3340</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Corporate Finance</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>['Business Administration 3130,D']</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 12:00 PM - 12:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>BUS 3680</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Research Methods for Sports Management</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>['Mathematics 2140,D', 'or', 'Statistics 2250,D']</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>BUS 3820</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Consumer Behavior</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>['Business Administration 3120,D']</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>BUS 3880</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Sports and Entertainment Marketing</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>['Business Administration 3120,D']</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>BUS 4560</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Comparative International Management</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>['Business Administration 3110,D']</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Monday , 06:40 PM - 09:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>BUS 4590</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Social Entrepreneurship</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>BUS 4635</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>['Business Administration 3150,D']</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>BUS 4820</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Channel and Retailing Management</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>['Business Administration 3120,D']</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>BUS 4920</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Corporate Law</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>['General Requirements: 3.25 gpa,000 to 9999']</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>BUS 4920</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Title IX</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>['General Requirements: 3.25 gpa,000 to 9999']</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>BUS 4930</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Negotiation Stratgies Tactics</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 11:00 AM - 11:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>BUS 4940</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>International Studies Ireland</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>BUS 4990</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Strategic Policy and Management</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>['Business Administration 2310,D']</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 02:30 PM - 03:45 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>CCPD 3010</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Career Development Strategies</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>CCPD 3020</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Career Management Strategies</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>CAS 2000</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Catholicism: Spirit and Methods</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>CAS 3000</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Catholic Church History: Crystallizing Moments</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 08:30 AM - 09:45 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>CAS 3530</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Dynamics of Spiritual Growth</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>CAS 3530</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Dynamics of Spiritual Growth</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>CHM 1040</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>General, Organic and Biological Chemistry for the Health Sciences</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>['Mathematics 1010,C', 'or', 'Mathematics 1040,C']</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 11:00 AM - 11:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>CHM 1050</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Introduction to General Chemistry</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>['UDM Placement Test-Math 1400 to 1410,']</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 12:00 PM - 12:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>CHM 1070</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>General Chemistry I</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>['Chemistry 1050,C', 'and', 'Mathematics 1400,D', 'or', 'Mathematics 1410,D', 'or', 'Mathematics 1350,C']</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 11:00 AM - 11:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>CHM 1070</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>General Chemistry I</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>['Chemistry 1050,C', 'and', 'Mathematics 1400,D', 'or', 'Mathematics 1410,D', 'or', 'Mathematics 1350,C']</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 12:00 PM - 12:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>CHM 1080</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>General Chemistry II</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>['Chemistry 1070,C']</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 12:00 PM - 12:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>CHM 1080</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>General Chemistry II</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>['Chemistry 1070,C']</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 11:00 AM - 11:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>CHM 1080</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>General Chemistry II</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>['Chemistry 1070,C']</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 09:00 AM - 09:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>CHM 1100</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Chemistry Laboratory I</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>['Chemistry 1070,C']</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Monday , 08:00 AM - 08:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>CHM 1100</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Chemistry Laboratory I</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>['Chemistry 1070,C']</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Monday , 08:00 AM - 08:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>CHM 1100</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Chemistry Laboratory I</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>['Chemistry 1070,C']</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Monday , 08:00 AM - 08:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>CHM 1120</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Inorganic and Analytical Chemistry Laboratory</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>['Chemistry 1080,C', 'and', 'Chemistry 1150,D', 'or']</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Monday , 08:00 AM - 08:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>CHM 1120</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Inorganic and Analytical Chemistry Laboratory</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>['Chemistry 1080,C', 'and', 'Chemistry 1150,D', 'or']</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Monday , 08:00 AM - 08:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>CHM 1120</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Inorganic and Analytical Chemistry Laboratory</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>['Chemistry 1080,C', 'and', 'Chemistry 1150,D', 'or']</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Monday , 08:00 AM - 08:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>CHM 1120</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Inorganic and Analytical Chemistry Laboratory</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>['Chemistry 1080,C', 'and', 'Chemistry 1150,D', 'or']</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Monday , 08:00 AM - 08:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>CHM 1150</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Research in Chemistry Lab</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>['Chemistry 1070,D', 'and', 'Chemistry 1080,D', 'or']</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Monday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>CHM 2250</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Organic Chemistry Laboratory I</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>['Chemistry 1120,C', 'or', 'Chemistry 1150,C', 'and']</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Wednesday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>CHM 2250</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Organic Chemistry Laboratory I</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>['Chemistry 1120,C', 'or', 'Chemistry 1150,C', 'and']</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Wednesday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>CHM 2260</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Organic Chemistry Laboratory II</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>['Chemistry 2250,C']</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Monday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>CHM 2260</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Organic Chemistry Laboratory II</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>['Chemistry 2250,C']</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Monday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>CHM 2260</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Organic Chemistry Laboratory II</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>['Chemistry 2250,C']</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Monday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>CHM 2260</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Organic Chemistry Laboratory II</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>['Chemistry 2250,C']</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Wednesday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>CHM 2260</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Organic Chemistry Laboratory II</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>['Chemistry 2250,C']</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Monday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>CHM 2270</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Organic Chemistry I</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>['Chemistry 1080,C']</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>CHM 2290</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Organic Chemistry II</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>['Chemistry 2270,C']</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 08:30 AM - 09:45 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>CHM 2290</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Organic Chemistry II</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>['Chemistry 2270,C']</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>CHM 2290</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Organic Chemistry II</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>['Chemistry 2270,C']</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>CHM 2310</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Advanced Organic and Inorganic Synthetic Laboratory</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>['Chemistry 2250,C']</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Monday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>CHM 3200</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Computers in Chemistry and Molecular Modeling</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Tuesday , 02:00 PM - 04:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>CHM 3200</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Computers in Chemistry and Molecular Modeling</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Thursday , 02:00 PM - 04:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>CHM 3420</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Chemical Dynamics and Quantum Chemistry</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>['Chemistry 3410,D']</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>CHM 3980</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Introduction to Undergraduate Research</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>['Chemistry 1980,C']</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>CHM 3980</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Introduction to Undergraduate Research</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>['Chemistry 1980,C']</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>CHM 3980</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Introduction to Undergraduate Research</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>['Chemistry 1980,C']</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>CHM 3980</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Introduction to Undergraduate Research</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>['Chemistry 1980,C']</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>CHM 3980</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Introduction to Undergraduate Research</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>['Chemistry 1980,C']</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>CHM 4700</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Comprehensive Biochemistry</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>['Chemistry 2290,C']</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>CHM 4720</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Biochemistry II</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>['Chemistry 4710,D']</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 09:00 AM - 09:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>CHM 4750</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Biochemistry Laboratory</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Wednesday , 02:00 PM - 04:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>CHM 4900</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Recent Advances in Chemistry and Biochemistry</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>['Chemistry 3410,C']</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>CHM 4980</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Undergraduate Research</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>CHM 4980</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Undergraduate Research</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>CHM 4980</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Undergraduate Research</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>CHM 4980</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Undergraduate Research</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>CHM 4980</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Undergraduate Research</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>CHM 4980</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Undergraduate Research</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>CHM 4990</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Chemistry Senior Assessment</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Tuesday , 05:15 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>CHI 2110</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Intermediate Chinese II</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>['Chinese 2100,C']</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 11:30 AM - 12:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>CHI 3100</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Advanced Chinese I</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>['Chinese 1120,C']</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 11:30 AM - 12:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>CIVE 3400</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Civil Engineering Techniques: Surveying, CAD, GIS</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>CIVE 3420</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Structural Theory</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>['Engineering 3260,D']</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 08:30 AM - 09:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>CIVE 3450</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Construction Materials</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>['Engineering 3260,D', 'or', 'Architecture 2680,C', 'and']</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>CIVE 4500</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Water and Waste-Water Engineering</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>['Chemistry 1070,D']</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>CIVE 4510</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Water and Waste-Water Engineering Laboratory</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>['Civil Engineering 4500,D']</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Monday , 02:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>CIVE 4726</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Introduction to Green Construction</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Monday , 05:15 PM - 07:45 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>CIVE 4820</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Civil Engineering Senior Design Project</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>['Civil Engineering 4100,D']</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 08:30 AM - 09:45 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>CIVE 4860</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Environmental Microbiology</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>['Civil Engineering 2100,D', 'or', 'Biology 1030,D', 'or', 'Biology 1080,D', 'or', 'Biology 1200,D']</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Wednesday , 03:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>CIVE 4860</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Environmental Microbiology</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>['Civil Engineering 2100,D', 'or', 'Biology 1030,D', 'or', 'Biology 1080,D', 'or', 'Biology 1200,D']</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Thursday , 08:00 AM - 10:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>CIVE 5300</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Forensic Engineering</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 05:15 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>CIVE 5500</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Water and Waste-Water Engineering</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>CIVE 5710</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Prestressed Concrete</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>CIVE 5726</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Introduction to Green Construction</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Monday , 05:15 PM - 07:45 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>CIVE 7990</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Civil Engineering Doctoral Dissertation</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>['Dept Qualifying Exam 1,']</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>CIVE 7990</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Civil Engineering Doctoral Dissertation</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>['Dept Qualifying Exam 1,']</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>CIVE 7990</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Civil Engineering Doctoral Dissertation</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>['Dept Qualifying Exam 1,']</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>CST 1010</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Fundamentals of Speech</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>['English 1310,C']</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 09:00 AM - 09:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>CST 1010</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Fundamentals of Speech</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>['English 1310,C']</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 10:00 AM - 10:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>CST 1010</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Fundamentals of Speech</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>['English 1310,C']</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 11:00 AM - 11:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>CST 1010</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Fundamentals of Speech</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>['English 1310,C']</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 12:00 PM - 12:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>CST 1010</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Fundamentals of Speech</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>['English 1310,C']</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>CST 1010</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Fundamentals of Speech</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>['English 1310,C']</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>CST 1010</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Fundamentals of Speech</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>['English 1310,C']</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>CST 1010</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Fundamentals of Speech</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>['English 1310,C']</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>CST 1120</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Visual Communication</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 10:00 AM - 10:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>CST 2030</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>News Writing and Reporting I</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>['English 1310,D']</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>CST 3110</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Single Camera Video Production</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 12:00 PM - 12:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>CST 3450</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>The Varsity News</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>CST 4800</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Communication Internship</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>CST 4990</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Capstone Seminar: Media Social Responsibility</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>['Required Credits: 60.0,May be taken concurrently.']</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 11:00 AM - 11:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>COM 8230</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Community Oral Health Education II</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>MCD 5080</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Introduction to Organizational Development</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Saturday , 09:00 AM - 12:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>MCD 5100</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Diversity and Multi-culturalism in Community Development</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Saturday , 01:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>MCD 5200</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Skills Workshops</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>MCD 5290</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Architect/Community Developer as Real Estate Developer</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Tuesday , 06:40 PM - 08:40 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>CSSE 1100</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Introduction to Computer Science Principles I</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 08:49 AM - 09:34 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>CSSE 1110</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Introduction to Computer Science Principles II</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 09:46 AM - 10:39 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>CSSE 1110</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Introduction to Computer Science Principles II</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 10:45 AM - 11:45 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>CSSE 1110</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Introduction to Computer Science Principles II</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 12:55 PM - 01:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>CSSE 1110</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Introduction to Computer Science Principles II</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Tuesday-Wednesday-Thursday-Friday , 01:23 PM - 02:11 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>CSSE 1110</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Introduction to Computer Science Principles II</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 01:50 PM - 02:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>CSSE 1110</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Introduction to Computer Science Principles II</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 12:39 PM - 01:34 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>CSSE 1110</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Introduction to Computer Science Principles II</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 11:15 AM - 12:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>CSSE 1110</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Introduction to Computer Science Principles II</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Monday-Tuesday-Wednesday-Thursday-Friday , 08:00 AM - 08:45 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>CSSE 1710</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Introduction to Programming I</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>CSSE 1711</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Programming I Laboratory</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Tuesday , 05:15 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>CSSE 1711</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Programming I Laboratory</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Wednesday-Thursday , 09:00 AM - 10:15 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>CSSE 1720</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Introduction to Programming II</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>['Comp Sci/Software Engineering 1710,C']</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 12:30 PM - 01:45 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>CSSE 1720</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Introduction to Programming II</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>['Comp Sci/Software Engineering 1710,C']</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 12:30 PM - 01:45 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>CSSE 1720</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Introduction to Programming II</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>['Comp Sci/Software Engineering 1710,C']</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 08:00 AM - 10:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>CSSE 1720</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Introduction to Programming II</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>['Comp Sci/Software Engineering 1710,C']</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 07:00 PM - 09:45 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>CSSE 1721</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Programming II Laboratory</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Wednesday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>CSSE 1721</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Programming II Laboratory</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Monday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>CSSE 3540</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Database Systems and Programming</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>['Comp Sci/Software Engineering 1720,C', 'or', 'Comp Sci/Software Engineering 1722,C']</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>CSSE 4440</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Web Technology</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>['Comp Sci/Software Engineering 1720,C', 'or', 'Comp Sci/Software Engineering 1722,C']</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 01:30 PM - 04:45 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>CSSE 4490</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Operating Systems</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>['Comp Sci/Software Engineering 3430,C']</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 05:15 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>CSSE 4540</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Computer Security</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 01:30 PM - 04:45 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>CSSE 4550</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Introduction to Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>['Comp Sci/Software Engineering 3430,C']</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 11:00 AM - 12:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>CSSE 4550</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Introduction to Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>['Comp Sci/Software Engineering 3430,C']</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 06:00 PM - 08:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>CSSE 4570</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Software Project Management</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>['Comp Sci/Software Engineering 4150,C']</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 05:15 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>CSSE 4900</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Game Design, Develop, &amp; Tools</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>CSSE 4952</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Senior Design Project II</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>['Comp Sci/Software Engineering 4951,C']</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 09:00 AM - 10:15 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>CSSE 5480</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 11:00 AM - 12:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>CSSE 5520</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Architectures for Software Systems</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Monday , 06:40 PM - 09:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>CSSE 5550</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Software Requirements Engineering</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 03:30 PM - 04:45 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>CSSE 5570</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Software Systems Project Management</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 05:15 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>CSSE 5930</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
           <t>Graduate Design Project</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
         <is>
           <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>CIS 2570</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Network Engineering Fundamentals</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 05:00 PM - 06:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>CIS 3350</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Introduction to Human Factors in IT Security</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>CIS 3720</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Incident Response and Disaster Recovery</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>CIS 4075</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Enterprise Architecture</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>CIS 4505</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Software Project Management</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>CIS 4600</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Data Mining for Cybersecurity</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>['Computer &amp; Information Systems 1010,D']</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>CIS 4650</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Information and Society</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>CIS 5050</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>CIS 5075</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Enterprise Architecture</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>['Computer &amp; Information Systems 5010,C']</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>CIS 5300</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Software Assurance</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Wednesday , 06:40 PM - 09:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>CIS 5300</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Software Assurance</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>CIS 5400</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Software Management</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Wednesday , 06:40 PM - 09:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>CIS 5400</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Software Management</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>CIS 5560</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Database Management</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Monday , 06:40 PM - 09:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>CIS 5570</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Networks</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 06:40 PM - 07:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>CIS 5650</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Information and Society</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>CNS 5000</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Research Methods in Counseling</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>CNS 5020</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Counseling and Human Development</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Tuesday , 04:00 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>CNS 5120</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Introduction to Counseling Theory and Process</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Thursday , 06:40 PM - 09:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>CNS 5350</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Introduction to Counseling</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Monday , 06:40 PM - 09:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>CNS 5360</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Program Development and Evaluation</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Wednesday , 04:00 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>CNS 5430</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Group Counseling</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Monday , 04:00 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>CNS 5600</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Mental Health Diagnosis and Treatment</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>['Counseling 5400,B']</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Thursday , 04:00 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>CNS 5680</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Advanced Issues in Assessment and Treatment</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Wednesday , 06:40 PM - 09:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>CNS 5850</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Counseling Practicum</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>['Required Credits: 39.0,']</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Monday , 07:00 PM - 09:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>CNS 6040</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Internship in Counseling</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Monday , 04:00 PM - 07:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>CJS 1310</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Introduction to Corrections</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 11:00 AM - 11:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>CJS 1310</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Introduction to Corrections</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 11:00 AM - 11:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>CJS 3900</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Introduction to Forensic Science</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>CJS 3900</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Introduction to Forensic Science</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 09:55 AM - 11:10 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>CJS 4160</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Gangs and Juvenile Delinquent Groups</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Monday , 04:00 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>CJS 4160</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Gangs and Juvenile Delinquent Groups</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Monday , 04:00 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>CJS 4200</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Evidence and Criminal Procedure</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>CJS 4510</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Criminology and Penology</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>CJS 4770</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Introduction to Intelligence Analysis</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 12:00 PM - 12:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>CJS 4870</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Victimology</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Thursday , 04:00 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>CJS 4870</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Victimology</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Thursday , 04:00 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>CJS 4900</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Internship in Criminal Justice Studies</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>CJS 4920</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Senior Seminar: Theory and Research in Criminal Justice</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>CJS 4920</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Senior Seminar: Theory and Research in Criminal Justice</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Friday , 01:00 PM - 01:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>CJS 4950</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Criminalistics (Forensic Science)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>CJS 4950</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Criminalistics (Forensic Science)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>CJS 5160</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Gangs and Globalization</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Monday , 04:00 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>CJS 5872</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Victimology</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Thursday , 04:00 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>CJS 5872</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Victimology</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Thursday , 04:00 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>CJS 5980</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Research Practice Seminar</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>['Criminal Justice 5000,C', 'or', 'Intelligence Analysis 5000,C']</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>CYBE 5200</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Specification</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>CYBE 5580</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>System Forensics</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Wednesday , 05:00 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>CYBE 5580</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>System Forensics</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>CYBE 5750</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Cybersecurity Technologies</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>CYBE 5770</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Cyber Defense Operations</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>CYBE 5790</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Cybersecurity Control Processes</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>CYBE 5800</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Data Analytics &amp; Cybersecurity</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>DATA 5001</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Science and Data</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>DATA 5060</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Advanced Statistics for Applied Data Analytics</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Tuesday , 06:40 PM - 09:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>DATA 5060</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Advanced Statistics for Applied Data Analytics</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>DATA 5070</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Statistical Software Packages for Applied Data Analytics I</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>DATA 5130</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Capstone Project</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>DATA 5150</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Quantitative Foundations of Economic Analysis</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>DENT 3010</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Integrated Biomedical Sciences II</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Monday , 02:00 PM - 04:50 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>DENT 6000</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Comprehensive Patient Care I</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>DENT 6010</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Advanced Concepts in Clinic Dentistry Seminar I</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>DENT 8002</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Practice Essentials &amp; IPE Module II</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>DENT 8005</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Practice Essentials &amp; IPE Module V</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>DENT 8420</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Ethical Rounds</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>ECN 2950</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Microeconomic Principles</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>ECN 2960</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Macroeconomic Principles</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>ECN 3150</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Intermediate Microeconomics</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>['Economics 2950,D']</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Wednesday , 01:00 PM - 03:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>ECN 3950</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Directed Reading and Research</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>ECN 4650</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Economics of International Trade</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>['Economics 2950,D']</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>ECN 4700</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Special Problems in Economics</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>ECN 5120</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Analysis of Economic Conditions</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>ECN 5400</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Financial Economics</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>ECN 5460</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Money and Capital Markets</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ECN 5800</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Economic Modeling for Data Analysis</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 11:00 AM - 11:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>ECN 5800</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Economic Modeling for Data Analysis</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>ECN 5950</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Individual Readings and Research</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>ECN 5990</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Master's Thesis</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>ELEE 2520</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Fundamentals of Electrical and Computer Engineering II</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>['Electrical Engineering 2500,C-']</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 11:00 AM - 12:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>ELEE 2520</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Fundamentals of Electrical and Computer Engineering II</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>['Electrical Engineering 2500,C-']</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Thursday , 10:00 AM - 12:45 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>ELEE 2530</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Fundamentals of Electrical and Computer Engineering II Laboratory</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Friday , 12:00 PM - 02:45 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>ELEE 2530</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Fundamentals of Electrical and Computer Engineering II Laboratory</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>['Electrical Engineering 2510,C-']</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Monday-Tuesday-Wednesday , 06:30 PM - 08:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>ELEE 2640</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Digital Logic Circuits I</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 11:20 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>ELEE 2650</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Digital Logic Circuits I Laboratory</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Monday , 02:00 PM - 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>ELEE 3720</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Electromechanical Energy Conversion</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>['Electrical Engineering 2520,D']</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 09:00 AM - 10:15 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>ELEE 3740</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Communication Theory I</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>['Electrical Engineering 3880,C-']</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ELEE 3740</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Communication Theory I</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>['Electrical Engineering 3880,C-']</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Thursday , 10:00 AM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>ELEE 3760</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Electric Vehicle Power Systems</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>['Electrical Engineering 3540,D']</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 02:30 PM - 03:45 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>ELEE 3860</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Introduction to Microcontrollers</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>['Electrical Engineering 2640,D']</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday-Thursday , 04:00 PM - 05:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>ELEE 3870</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Introduction to Microcontrollers Laboratory</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Tuesday , 04:00 PM - 06:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>ELEE 3880</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Signals and Systems</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>['Mathematics 3720,D']</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 02:00 PM - 03:15 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>ELEE 4000</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Hardware and Software Integration</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>['Comp Sci/Software Engineering 1720,D', 'or', 'Comp Sci/Software Engineering 1722,D']</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 03:30 PM - 04:45 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>ELEE 4031</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Electrical and Computer Engineering Department Senior Capstone Design II</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Tuesday , 09:55 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>ELEE 4032</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Electrical and Computer Engineering Department Senior Capstone Design II Laboratory</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Thursday , 09:55 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>ELEE 4033</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Robotics and Mechatronic Systems Egineering Design II</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Thursday , 09:45 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>ELEE 4034</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Robotics and Mechatronic Systems Egineering Design II Laboratory</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Tuesday , 09:45 AM - 12:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>ELEE 4400</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Computational Intelligence Techniques</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Friday , 09:25 AM - 11:55 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>ELEE 4780</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Embedded Systems</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>['Electrical Engineering 3860,C-']</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 05:15 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>ELEE 4790</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Embedded Systems Laboratory</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Friday , 01:00 PM - 03:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>ELEE 4800</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Computer Organization and Architecture</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>['Electrical Engineering 2640,D']</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 06:40 PM - 07:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>ELEE 4880</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing I</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>['Electrical Engineering 3880,C-']</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 05:15 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>ELEE 5750</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Deep Learning</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 05:15 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>ELEE 5770</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Embedded Systems</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 05:15 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>ELEE 5790</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Embedded Systems Laboratory</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Friday , 01:00 PM - 03:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>ELEE 5800</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Computer Organization &amp; Architecture</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 06:40 PM - 07:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>ELEE 5810</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Applications of Estimation Theory in Robotics &amp; Signal Processing</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>['Electrical Engineering 5620,C']</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 06:40 PM - 07:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>ELEE 5880</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing I</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Tuesday-Thursday , 05:15 PM - 06:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>ELEE 5940</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Embed Autonmous Ctrl Rsrch/Dev</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>ELEE 5990</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Electrical and Computer Engineering Master's Thesis</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>ELEE 5990</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Electrical and Computer Engineering Master's Thesis</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>ELEE 7990</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Electrical and Computer Engineering Doctoral Dissertation</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>['Dept Qualifying Exam 1,']</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>ELEE 7990</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Electrical and Computer Engineering Doctoral Dissertation</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>['Dept Qualifying Exam 1,']</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>ELEE 7990</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Electrical and Computer Engineering Doctoral Dissertation</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>['Dept Qualifying Exam 1,']</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>ELEE 7990</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Electrical and Computer Engineering Doctoral Dissertation</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>['Dept Qualifying Exam 1,']</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>ELEE 7990</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Electrical and Computer Engineering Doctoral Dissertation</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>['Dept Qualifying Exam 1,']</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> , -</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>ENGR 1001</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Ethical Engineering Responsibilities</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 01:30 PM - 04:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>ENGR 1001</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Ethical Engineering Responsibilities</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Tuesday , 09:00 AM - 12:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>ENGR 1001</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Ethical Engineering Responsibilities</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>Monday-Wednesday , 04:00 PM - 07:00 PM</t>
         </is>
       </c>
     </row>
